--- a/animals words.xlsx
+++ b/animals words.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVI\PycharmProjects\useGensim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590E2DDF-90FD-4EB4-8217-772249C0E58F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB118E2-8A4A-4BF6-9059-AB657B64B2DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words list" sheetId="1" r:id="rId1"/>
     <sheet name="גיליון2" sheetId="2" r:id="rId2"/>
+    <sheet name="wrong words" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="1528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="2408">
   <si>
     <t>Aardvark</t>
   </si>
@@ -4619,13 +4620,2653 @@
   </si>
   <si>
     <t>Mistle_thrush</t>
+  </si>
+  <si>
+    <t>wrong words</t>
+  </si>
+  <si>
+    <t>Freckle</t>
+  </si>
+  <si>
+    <t>Nosed</t>
+  </si>
+  <si>
+    <t>Mangy</t>
+  </si>
+  <si>
+    <t>SLACKERJACK</t>
+  </si>
+  <si>
+    <t>Necked</t>
+  </si>
+  <si>
+    <t>Haired</t>
+  </si>
+  <si>
+    <t>OPEN_RESTRICTED_1</t>
+  </si>
+  <si>
+    <t>J_Wengerd</t>
+  </si>
+  <si>
+    <t>Pooper</t>
+  </si>
+  <si>
+    <t>Chomper</t>
+  </si>
+  <si>
+    <t>Blood_Sucking</t>
+  </si>
+  <si>
+    <t>Scat</t>
+  </si>
+  <si>
+    <t>Eared</t>
+  </si>
+  <si>
+    <t>Bellied</t>
+  </si>
+  <si>
+    <t>Poo_Poo</t>
+  </si>
+  <si>
+    <t>Eyed_Boy</t>
+  </si>
+  <si>
+    <t>K_Sugg</t>
+  </si>
+  <si>
+    <t>Stripey</t>
+  </si>
+  <si>
+    <t>Big_Eared</t>
+  </si>
+  <si>
+    <t>C._Pilares</t>
+  </si>
+  <si>
+    <t>Droppings</t>
+  </si>
+  <si>
+    <t>Poopers</t>
+  </si>
+  <si>
+    <t>Slithery</t>
+  </si>
+  <si>
+    <t>Broken_Tail</t>
+  </si>
+  <si>
+    <t>Toothed</t>
+  </si>
+  <si>
+    <t>Pooping</t>
+  </si>
+  <si>
+    <t>Wormy</t>
+  </si>
+  <si>
+    <t>Weekly_Shriek</t>
+  </si>
+  <si>
+    <t>Thought_Extinct</t>
+  </si>
+  <si>
+    <t>Flopsy</t>
+  </si>
+  <si>
+    <t>Collared</t>
+  </si>
+  <si>
+    <t>Scaredy_Cat</t>
+  </si>
+  <si>
+    <t>Biggest_Baddest</t>
+  </si>
+  <si>
+    <t>Hoppity</t>
+  </si>
+  <si>
+    <t>Purrfect</t>
+  </si>
+  <si>
+    <t>Poison_Dart</t>
+  </si>
+  <si>
+    <t>Turd</t>
+  </si>
+  <si>
+    <t>Wanders_Into</t>
+  </si>
+  <si>
+    <t>Clawed</t>
+  </si>
+  <si>
+    <t>Bash_Compactor</t>
+  </si>
+  <si>
+    <t>Chested</t>
+  </si>
+  <si>
+    <t>Weenie</t>
+  </si>
+  <si>
+    <t>Rub_Dub_Dub</t>
+  </si>
+  <si>
+    <t>Cat_Scratch</t>
+  </si>
+  <si>
+    <t>Jelly_Bean</t>
+  </si>
+  <si>
+    <t>Cat_Burglar</t>
+  </si>
+  <si>
+    <t>Stinky</t>
+  </si>
+  <si>
+    <t>Fraidy_Cat</t>
+  </si>
+  <si>
+    <t>Spiny</t>
+  </si>
+  <si>
+    <t>C_Wyers</t>
+  </si>
+  <si>
+    <t>Six_Legged</t>
+  </si>
+  <si>
+    <t>Makeout</t>
+  </si>
+  <si>
+    <t>R._Ganpath</t>
+  </si>
+  <si>
+    <t>Legged</t>
+  </si>
+  <si>
+    <t>Fossil_Found</t>
+  </si>
+  <si>
+    <t>Squeezer</t>
+  </si>
+  <si>
+    <t>Rattlesnake_Bites</t>
+  </si>
+  <si>
+    <t>Footed</t>
+  </si>
+  <si>
+    <t>Critter</t>
+  </si>
+  <si>
+    <t>Doodle_Doo</t>
+  </si>
+  <si>
+    <t>Yeller</t>
+  </si>
+  <si>
+    <t>MadTracks</t>
+  </si>
+  <si>
+    <t>LunchTimeWaster</t>
+  </si>
+  <si>
+    <t>Three_Legged</t>
+  </si>
+  <si>
+    <t>Shroom</t>
+  </si>
+  <si>
+    <t>Doodle_Dandy</t>
+  </si>
+  <si>
+    <t>O._Pereira</t>
+  </si>
+  <si>
+    <t>Irish_Wolfhound</t>
+  </si>
+  <si>
+    <t>Hat</t>
+  </si>
+  <si>
+    <t>Diggity</t>
+  </si>
+  <si>
+    <t>Lizzies</t>
+  </si>
+  <si>
+    <t>Hairy</t>
+  </si>
+  <si>
+    <t>D_Mc_Kirgan</t>
+  </si>
+  <si>
+    <t>Furball</t>
+  </si>
+  <si>
+    <t>Quacker</t>
+  </si>
+  <si>
+    <t>o_ween</t>
+  </si>
+  <si>
+    <t>Farting</t>
+  </si>
+  <si>
+    <t>Slithers</t>
+  </si>
+  <si>
+    <t>Slobber</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Hunny</t>
+  </si>
+  <si>
+    <t>Weenies</t>
+  </si>
+  <si>
+    <t>Quack_Quack</t>
+  </si>
+  <si>
+    <t>Rikki_Tikki_Tavi</t>
+  </si>
+  <si>
+    <t>F._Peltroche</t>
+  </si>
+  <si>
+    <t>K._Deonauth</t>
+  </si>
+  <si>
+    <t>V._Urieta_Moran</t>
+  </si>
+  <si>
+    <t>Beaky</t>
+  </si>
+  <si>
+    <t>Yellow_Eyed</t>
+  </si>
+  <si>
+    <t>Wooly</t>
+  </si>
+  <si>
+    <t>Wabbit</t>
+  </si>
+  <si>
+    <t>Sock_Monkey</t>
+  </si>
+  <si>
+    <t>M_Kakaley</t>
+  </si>
+  <si>
+    <t>Porkchop</t>
+  </si>
+  <si>
+    <t>Faces_Extinction</t>
+  </si>
+  <si>
+    <t>Burps</t>
+  </si>
+  <si>
+    <t>Quackers</t>
+  </si>
+  <si>
+    <t>Breasted</t>
+  </si>
+  <si>
+    <t>Mixed_Breed</t>
+  </si>
+  <si>
+    <t>Dippin</t>
+  </si>
+  <si>
+    <t>Pee_Pee</t>
+  </si>
+  <si>
+    <t>Riding_Hood</t>
+  </si>
+  <si>
+    <t>Bleedin</t>
+  </si>
+  <si>
+    <t>Dog_Eats</t>
+  </si>
+  <si>
+    <t>Totally_Tubular</t>
+  </si>
+  <si>
+    <t>Adoptable</t>
+  </si>
+  <si>
+    <t>Tight_Pants</t>
+  </si>
+  <si>
+    <t>Rednose</t>
+  </si>
+  <si>
+    <t>Fanged</t>
+  </si>
+  <si>
+    <t>Cow_Ice_Cream</t>
+  </si>
+  <si>
+    <t>Freckles</t>
+  </si>
+  <si>
+    <t>Gorilla_Grodd</t>
+  </si>
+  <si>
+    <t>Tail</t>
+  </si>
+  <si>
+    <t>Catlike</t>
+  </si>
+  <si>
+    <t>Doo_Doo</t>
+  </si>
+  <si>
+    <t>Cat_Whiskers</t>
+  </si>
+  <si>
+    <t>Squirt_Gun</t>
+  </si>
+  <si>
+    <t>Bloggy</t>
+  </si>
+  <si>
+    <t>J._Barria</t>
+  </si>
+  <si>
+    <t>Ghost_Shivers</t>
+  </si>
+  <si>
+    <t>Snake_Bite</t>
+  </si>
+  <si>
+    <t>Raggedy</t>
+  </si>
+  <si>
+    <t>Moo_Moo</t>
+  </si>
+  <si>
+    <t>Bird_Sings</t>
+  </si>
+  <si>
+    <t>BONES_airing_Thursday</t>
+  </si>
+  <si>
+    <t>Stinky_Feet</t>
+  </si>
+  <si>
+    <t>Hoofs</t>
+  </si>
+  <si>
+    <t>Nosey</t>
+  </si>
+  <si>
+    <t>Huntin</t>
+  </si>
+  <si>
+    <t>Jungle_Safari</t>
+  </si>
+  <si>
+    <t>Fidget</t>
+  </si>
+  <si>
+    <t>Humping</t>
+  </si>
+  <si>
+    <t>Mouthed</t>
+  </si>
+  <si>
+    <t>Rascally</t>
+  </si>
+  <si>
+    <t>Chicken_Legs</t>
+  </si>
+  <si>
+    <t>Moo_Cow</t>
+  </si>
+  <si>
+    <t>Crouching_Tiger_Hidden</t>
+  </si>
+  <si>
+    <t>Goatman</t>
+  </si>
+  <si>
+    <t>Crackin</t>
+  </si>
+  <si>
+    <t>Blubber</t>
+  </si>
+  <si>
+    <t>Haulin</t>
+  </si>
+  <si>
+    <t>Scarey</t>
+  </si>
+  <si>
+    <t>Mean_Eyed</t>
+  </si>
+  <si>
+    <t>Bug_Eyed</t>
+  </si>
+  <si>
+    <t>O'The</t>
+  </si>
+  <si>
+    <t>Wiggler</t>
+  </si>
+  <si>
+    <t>Chompers</t>
+  </si>
+  <si>
+    <t>Fairy</t>
+  </si>
+  <si>
+    <t>Cunts</t>
+  </si>
+  <si>
+    <t>Sparkie</t>
+  </si>
+  <si>
+    <t>Pointy</t>
+  </si>
+  <si>
+    <t>Giggly</t>
+  </si>
+  <si>
+    <t>lion_mauls</t>
+  </si>
+  <si>
+    <t>Different_Breed</t>
+  </si>
+  <si>
+    <t>Woofs</t>
+  </si>
+  <si>
+    <t>Valdez_crud</t>
+  </si>
+  <si>
+    <t>Hoof</t>
+  </si>
+  <si>
+    <t>Hankie</t>
+  </si>
+  <si>
+    <t>Fluffy_Bunny</t>
+  </si>
+  <si>
+    <t>Schmoo</t>
+  </si>
+  <si>
+    <t>Broomstick</t>
+  </si>
+  <si>
+    <t>Fisted</t>
+  </si>
+  <si>
+    <t>Pawz</t>
+  </si>
+  <si>
+    <t>Slippy</t>
+  </si>
+  <si>
+    <t>Who_Wears</t>
+  </si>
+  <si>
+    <t>Scrotum</t>
+  </si>
+  <si>
+    <t>Koo_Koo</t>
+  </si>
+  <si>
+    <t>Mopsy</t>
+  </si>
+  <si>
+    <t>O_Ween</t>
+  </si>
+  <si>
+    <t>CFA_Iams</t>
+  </si>
+  <si>
+    <t>Cream_Puff</t>
+  </si>
+  <si>
+    <t>Squiggly</t>
+  </si>
+  <si>
+    <t>Miaow</t>
+  </si>
+  <si>
+    <t>M._Ccamaque</t>
+  </si>
+  <si>
+    <t>Whirly</t>
+  </si>
+  <si>
+    <t>Brekky</t>
+  </si>
+  <si>
+    <t>Tat_Tat</t>
+  </si>
+  <si>
+    <t>BILLED_WITH</t>
+  </si>
+  <si>
+    <t>Bloody_Nose</t>
+  </si>
+  <si>
+    <t>Pussy_Willow</t>
+  </si>
+  <si>
+    <t>Foamy</t>
+  </si>
+  <si>
+    <t>Bride_Wore</t>
+  </si>
+  <si>
+    <t>Poops</t>
+  </si>
+  <si>
+    <t>Red_Headed_Stepchild</t>
+  </si>
+  <si>
+    <t>Sa##_+</t>
+  </si>
+  <si>
+    <t>#####_Larchmere_Blvd</t>
+  </si>
+  <si>
+    <t>Alleycat</t>
+  </si>
+  <si>
+    <t>Spangled</t>
+  </si>
+  <si>
+    <t>Twat</t>
+  </si>
+  <si>
+    <t>Frizzy</t>
+  </si>
+  <si>
+    <t>CAPTION_THIS</t>
+  </si>
+  <si>
+    <t>Cat_Adoptions</t>
+  </si>
+  <si>
+    <t>Oil_Ptg</t>
+  </si>
+  <si>
+    <t>Lipped</t>
+  </si>
+  <si>
+    <t>Organ_Grinder</t>
+  </si>
+  <si>
+    <t>Pencil_Sharpener</t>
+  </si>
+  <si>
+    <t>Plush_Toy</t>
+  </si>
+  <si>
+    <t>Nekkid</t>
+  </si>
+  <si>
+    <t>Species_Discovered</t>
+  </si>
+  <si>
+    <t>Dill_Pickle</t>
+  </si>
+  <si>
+    <t>Rabit</t>
+  </si>
+  <si>
+    <t>Biskit</t>
+  </si>
+  <si>
+    <t>Tusks</t>
+  </si>
+  <si>
+    <t>Feathered</t>
+  </si>
+  <si>
+    <t>Scaly</t>
+  </si>
+  <si>
+    <t>Knotty</t>
+  </si>
+  <si>
+    <t>Woof_Woof</t>
+  </si>
+  <si>
+    <t>Cheesey</t>
+  </si>
+  <si>
+    <t>Coonhound</t>
+  </si>
+  <si>
+    <t>Noo_Noo</t>
+  </si>
+  <si>
+    <t>P._Mailhot</t>
+  </si>
+  <si>
+    <t>Stompy</t>
+  </si>
+  <si>
+    <t>Squirrelly</t>
+  </si>
+  <si>
+    <t>Funshine</t>
+  </si>
+  <si>
+    <t>Mandible</t>
+  </si>
+  <si>
+    <t>Cackle</t>
+  </si>
+  <si>
+    <t>Giant_Inflatable</t>
+  </si>
+  <si>
+    <t>Short_Haired</t>
+  </si>
+  <si>
+    <t>M._Chilo</t>
+  </si>
+  <si>
+    <t>Heeler_mix</t>
+  </si>
+  <si>
+    <t>Pot_Bellied</t>
+  </si>
+  <si>
+    <t>Leapin</t>
+  </si>
+  <si>
+    <t>Bungee_Jump</t>
+  </si>
+  <si>
+    <t>Trinket</t>
+  </si>
+  <si>
+    <t>Bass_Assassin_Shads</t>
+  </si>
+  <si>
+    <t>Eez</t>
+  </si>
+  <si>
+    <t>Maddest</t>
+  </si>
+  <si>
+    <t>Feather_Duster</t>
+  </si>
+  <si>
+    <t>Thangs</t>
+  </si>
+  <si>
+    <t>SKYLINE_CLUB</t>
+  </si>
+  <si>
+    <t>Hairbrush</t>
+  </si>
+  <si>
+    <t>Woodpile</t>
+  </si>
+  <si>
+    <t>Dinosaur_Found</t>
+  </si>
+  <si>
+    <t>Fowl_Play</t>
+  </si>
+  <si>
+    <t>Paper_Mache</t>
+  </si>
+  <si>
+    <t>Hammerhead_shark</t>
+  </si>
+  <si>
+    <t>Creepy_Crawly</t>
+  </si>
+  <si>
+    <t>Bashful</t>
+  </si>
+  <si>
+    <t>Boned</t>
+  </si>
+  <si>
+    <t>Hoochie</t>
+  </si>
+  <si>
+    <t>Kitty_Cat</t>
+  </si>
+  <si>
+    <t>Skunky</t>
+  </si>
+  <si>
+    <t>Hootchie</t>
+  </si>
+  <si>
+    <t>Terrestrials</t>
+  </si>
+  <si>
+    <t>OXFORD_HOTEL</t>
+  </si>
+  <si>
+    <t>Pegleg</t>
+  </si>
+  <si>
+    <t>Fuzzy_Wuzzy</t>
+  </si>
+  <si>
+    <t>Wibbly_Pig</t>
+  </si>
+  <si>
+    <t>Howl_oween</t>
+  </si>
+  <si>
+    <t>Spanker</t>
+  </si>
+  <si>
+    <t>Cuckoo_Clock</t>
+  </si>
+  <si>
+    <t>Rustle</t>
+  </si>
+  <si>
+    <t>Gumdrop</t>
+  </si>
+  <si>
+    <t>Thunder_Thighs</t>
+  </si>
+  <si>
+    <t>F._Munaylla</t>
+  </si>
+  <si>
+    <t>Junk_Yard</t>
+  </si>
+  <si>
+    <t>Paint_Brush</t>
+  </si>
+  <si>
+    <t>Fur_Coat</t>
+  </si>
+  <si>
+    <t>Girl_Mauled</t>
+  </si>
+  <si>
+    <t>Motionless</t>
+  </si>
+  <si>
+    <t>Girl_Attacked</t>
+  </si>
+  <si>
+    <t>Dough_Boy</t>
+  </si>
+  <si>
+    <t>Stinker</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Peepers</t>
+  </si>
+  <si>
+    <t>Blooded</t>
+  </si>
+  <si>
+    <t>Eeny</t>
+  </si>
+  <si>
+    <t>Shits</t>
+  </si>
+  <si>
+    <t>Wheelie</t>
+  </si>
+  <si>
+    <t>Snot</t>
+  </si>
+  <si>
+    <t>Fluffy</t>
+  </si>
+  <si>
+    <t>Witch_Hat</t>
+  </si>
+  <si>
+    <t>Sniffy</t>
+  </si>
+  <si>
+    <t>Meows</t>
+  </si>
+  <si>
+    <t>Paper_Scissors</t>
+  </si>
+  <si>
+    <t>Dingbat</t>
+  </si>
+  <si>
+    <t>Mutilations</t>
+  </si>
+  <si>
+    <t>Bow_wow</t>
+  </si>
+  <si>
+    <t>Skidmark</t>
+  </si>
+  <si>
+    <t>Chucker</t>
+  </si>
+  <si>
+    <t>Distant_Planet</t>
+  </si>
+  <si>
+    <t>Snakey</t>
+  </si>
+  <si>
+    <t>Blowjob</t>
+  </si>
+  <si>
+    <t>Pup</t>
+  </si>
+  <si>
+    <t>Billygoat</t>
+  </si>
+  <si>
+    <t>Gizzard</t>
+  </si>
+  <si>
+    <t>Toot_Toot</t>
+  </si>
+  <si>
+    <t>Pigs_Feet</t>
+  </si>
+  <si>
+    <t>Dorks</t>
+  </si>
+  <si>
+    <t>Bear_Whisperer</t>
+  </si>
+  <si>
+    <t>Spookiest</t>
+  </si>
+  <si>
+    <t>Dogmeat</t>
+  </si>
+  <si>
+    <t>Stuffed_Animal</t>
+  </si>
+  <si>
+    <t>Gum_Drop</t>
+  </si>
+  <si>
+    <t>Squishy</t>
+  </si>
+  <si>
+    <t>Warm_Fuzzies</t>
+  </si>
+  <si>
+    <t>Wasp_Nest</t>
+  </si>
+  <si>
+    <t>Okey_Dokey</t>
+  </si>
+  <si>
+    <t>ANIMAL_DOCTOR</t>
+  </si>
+  <si>
+    <t>Cross_Eyed</t>
+  </si>
+  <si>
+    <t>Candy_Coated</t>
+  </si>
+  <si>
+    <t>Staffy</t>
+  </si>
+  <si>
+    <t>Tootin</t>
+  </si>
+  <si>
+    <t>Margie_Palatini</t>
+  </si>
+  <si>
+    <t>Shy_Guy</t>
+  </si>
+  <si>
+    <t>Stripy</t>
+  </si>
+  <si>
+    <t>Longneck</t>
+  </si>
+  <si>
+    <t>Toed</t>
+  </si>
+  <si>
+    <t>Jiggle</t>
+  </si>
+  <si>
+    <t>Starfuckers</t>
+  </si>
+  <si>
+    <t>Pigmy</t>
+  </si>
+  <si>
+    <t>Grizzy</t>
+  </si>
+  <si>
+    <t>Whistling_Duck</t>
+  </si>
+  <si>
+    <t>Mother_Fucker</t>
+  </si>
+  <si>
+    <t>Sadie_Jo</t>
+  </si>
+  <si>
+    <t>Bun_Bun</t>
+  </si>
+  <si>
+    <t>Wrinkly</t>
+  </si>
+  <si>
+    <t>Blue_Suede</t>
+  </si>
+  <si>
+    <t>Titties</t>
+  </si>
+  <si>
+    <t>Splat</t>
+  </si>
+  <si>
+    <t>Boiled_Peanuts</t>
+  </si>
+  <si>
+    <t>Crispies</t>
+  </si>
+  <si>
+    <t>Cracklin</t>
+  </si>
+  <si>
+    <t>Theif</t>
+  </si>
+  <si>
+    <t>Komodo_Dragon</t>
+  </si>
+  <si>
+    <t>Jiggly</t>
+  </si>
+  <si>
+    <t>Rabbit_Foot</t>
+  </si>
+  <si>
+    <t>Biting_Off</t>
+  </si>
+  <si>
+    <t>Tits</t>
+  </si>
+  <si>
+    <t>Mew_Mew</t>
+  </si>
+  <si>
+    <t>BooBoo</t>
+  </si>
+  <si>
+    <t>Ass</t>
+  </si>
+  <si>
+    <t>Hubcap</t>
+  </si>
+  <si>
+    <t>Grunter</t>
+  </si>
+  <si>
+    <t>Pear_Shaped</t>
+  </si>
+  <si>
+    <t>Bow_Wows</t>
+  </si>
+  <si>
+    <t>Leprechaun</t>
+  </si>
+  <si>
+    <t>Banded</t>
+  </si>
+  <si>
+    <t>Won_Ton</t>
+  </si>
+  <si>
+    <t>Eye_Gravy</t>
+  </si>
+  <si>
+    <t>Num_Num</t>
+  </si>
+  <si>
+    <t>Fossils_Found</t>
+  </si>
+  <si>
+    <t>Oven_Mitt</t>
+  </si>
+  <si>
+    <t>Catnip</t>
+  </si>
+  <si>
+    <t>Stepchild</t>
+  </si>
+  <si>
+    <t>Hotfoot</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>Gobble_Gobble</t>
+  </si>
+  <si>
+    <t>Horned</t>
+  </si>
+  <si>
+    <t>Alien_Abduction</t>
+  </si>
+  <si>
+    <t>Totally_Geeky</t>
+  </si>
+  <si>
+    <t>Goodness_Gracious</t>
+  </si>
+  <si>
+    <t>Dachshund_mix</t>
+  </si>
+  <si>
+    <t>Frazzle</t>
+  </si>
+  <si>
+    <t>Mr._Bigglesworth</t>
+  </si>
+  <si>
+    <t>Flatulent</t>
+  </si>
+  <si>
+    <t>Rascal</t>
+  </si>
+  <si>
+    <t>Woo_Woo</t>
+  </si>
+  <si>
+    <t>Incredible_Inman</t>
+  </si>
+  <si>
+    <t>Cobra_Ricco</t>
+  </si>
+  <si>
+    <t>Polkadot</t>
+  </si>
+  <si>
+    <t>Sonicbids_Spotlight</t>
+  </si>
+  <si>
+    <t>Genetically_Altered</t>
+  </si>
+  <si>
+    <t>Tree_Hugger</t>
+  </si>
+  <si>
+    <t>Whooper</t>
+  </si>
+  <si>
+    <t>Eludes_Capture</t>
+  </si>
+  <si>
+    <t>Honey_Bunny</t>
+  </si>
+  <si>
+    <t>A._Ramgeet</t>
+  </si>
+  <si>
+    <t>Exotic_Pets</t>
+  </si>
+  <si>
+    <t>Bunny_Ears</t>
+  </si>
+  <si>
+    <t>Jogs</t>
+  </si>
+  <si>
+    <t>Puppies_Found</t>
+  </si>
+  <si>
+    <t>Jim_Jarmusch_Ghost</t>
+  </si>
+  <si>
+    <t>Whisker</t>
+  </si>
+  <si>
+    <t>Giddyup</t>
+  </si>
+  <si>
+    <t>Flippy</t>
+  </si>
+  <si>
+    <t>Plumed</t>
+  </si>
+  <si>
+    <t>Wandering_Eye</t>
+  </si>
+  <si>
+    <t>Toothy</t>
+  </si>
+  <si>
+    <t>Haired_Girl</t>
+  </si>
+  <si>
+    <t>Bandit</t>
+  </si>
+  <si>
+    <t>Chitty_Bang_Bang</t>
+  </si>
+  <si>
+    <t>Missing_Toddler_Found</t>
+  </si>
+  <si>
+    <t>Purr_fect</t>
+  </si>
+  <si>
+    <t>Monkey_Fist</t>
+  </si>
+  <si>
+    <t>Boab</t>
+  </si>
+  <si>
+    <t>Doorstop</t>
+  </si>
+  <si>
+    <t>Flesh_Eating</t>
+  </si>
+  <si>
+    <t>Species_Found</t>
+  </si>
+  <si>
+    <t>Tye_Dye</t>
+  </si>
+  <si>
+    <t>Elmo_Grover</t>
+  </si>
+  <si>
+    <t>Tailed</t>
+  </si>
+  <si>
+    <t>##min_Documentary</t>
+  </si>
+  <si>
+    <t>Bronze_##G</t>
+  </si>
+  <si>
+    <t>Falcor</t>
+  </si>
+  <si>
+    <t>Sic_Em</t>
+  </si>
+  <si>
+    <t>J._Skerrett</t>
+  </si>
+  <si>
+    <t>Weirdo</t>
+  </si>
+  <si>
+    <t>Cock_Doodle</t>
+  </si>
+  <si>
+    <t>Tail_Ale</t>
+  </si>
+  <si>
+    <t>Thieves_Swipe</t>
+  </si>
+  <si>
+    <t>Hawg</t>
+  </si>
+  <si>
+    <t>Euthanizes</t>
+  </si>
+  <si>
+    <t>Lampshade</t>
+  </si>
+  <si>
+    <t>J._Magrell</t>
+  </si>
+  <si>
+    <t>Snout</t>
+  </si>
+  <si>
+    <t>Gnarly</t>
+  </si>
+  <si>
+    <t>Big_Hearted</t>
+  </si>
+  <si>
+    <t>Teddybear</t>
+  </si>
+  <si>
+    <t>Miss_Prissy</t>
+  </si>
+  <si>
+    <t>Rocking_Chair</t>
+  </si>
+  <si>
+    <t>Baaa</t>
+  </si>
+  <si>
+    <t>Knuckle</t>
+  </si>
+  <si>
+    <t>Piggley_Winks</t>
+  </si>
+  <si>
+    <t>Boonies</t>
+  </si>
+  <si>
+    <t>Horse_Saloon</t>
+  </si>
+  <si>
+    <t>Bucking_Bronco</t>
+  </si>
+  <si>
+    <t>Beer_Bottle</t>
+  </si>
+  <si>
+    <t>Poxy</t>
+  </si>
+  <si>
+    <t>Holiday_Sweater</t>
+  </si>
+  <si>
+    <t>Bombproof</t>
+  </si>
+  <si>
+    <t>Dead_Mans</t>
+  </si>
+  <si>
+    <t>Devours</t>
+  </si>
+  <si>
+    <t>attacked_tenn</t>
+  </si>
+  <si>
+    <t>Gut_Instinct</t>
+  </si>
+  <si>
+    <t>Gobbler</t>
+  </si>
+  <si>
+    <t>ATMD_IV_PP2_Cool</t>
+  </si>
+  <si>
+    <t>Dogzilla</t>
+  </si>
+  <si>
+    <t>Chocolate_Bunnies</t>
+  </si>
+  <si>
+    <t>Gristle</t>
+  </si>
+  <si>
+    <t>Hatted</t>
+  </si>
+  <si>
+    <t>Gimps</t>
+  </si>
+  <si>
+    <t>Cuddly</t>
+  </si>
+  <si>
+    <t>Garters</t>
+  </si>
+  <si>
+    <t>Spookie</t>
+  </si>
+  <si>
+    <t>Dr._Seuss_Cat</t>
+  </si>
+  <si>
+    <t>Fucker</t>
+  </si>
+  <si>
+    <t>Strumpet</t>
+  </si>
+  <si>
+    <t>Slosh</t>
+  </si>
+  <si>
+    <t>Man_Allegedly_Shoots</t>
+  </si>
+  <si>
+    <t>Dog_Barkery</t>
+  </si>
+  <si>
+    <t>Jack_O'_Lantern</t>
+  </si>
+  <si>
+    <t>Smokey</t>
+  </si>
+  <si>
+    <t>Muck_Sticky</t>
+  </si>
+  <si>
+    <t>Jemima_Puddle_Duck</t>
+  </si>
+  <si>
+    <t>Pompom</t>
+  </si>
+  <si>
+    <t>Sunburnt</t>
+  </si>
+  <si>
+    <t>Curtsey</t>
+  </si>
+  <si>
+    <t>Fur_Coats</t>
+  </si>
+  <si>
+    <t>Madam_Gorski</t>
+  </si>
+  <si>
+    <t>Mucky</t>
+  </si>
+  <si>
+    <t>Splodge</t>
+  </si>
+  <si>
+    <t>DINING_REVIEW</t>
+  </si>
+  <si>
+    <t>GMTS_Newsletter</t>
+  </si>
+  <si>
+    <t>Poppet</t>
+  </si>
+  <si>
+    <t>Saucepan</t>
+  </si>
+  <si>
+    <t>Cowpie</t>
+  </si>
+  <si>
+    <t>Bird_Feeders</t>
+  </si>
+  <si>
+    <t>Rattlin</t>
+  </si>
+  <si>
+    <t>naped</t>
+  </si>
+  <si>
+    <t>Deeper_Shade</t>
+  </si>
+  <si>
+    <t>Barked</t>
+  </si>
+  <si>
+    <t>Straggler</t>
+  </si>
+  <si>
+    <t>Barf</t>
+  </si>
+  <si>
+    <t>Pussy</t>
+  </si>
+  <si>
+    <t>Starry_Starry</t>
+  </si>
+  <si>
+    <t>Clucky</t>
+  </si>
+  <si>
+    <t>Runover</t>
+  </si>
+  <si>
+    <t>Brekkie</t>
+  </si>
+  <si>
+    <t>Daily_Photoist</t>
+  </si>
+  <si>
+    <t>Udder</t>
+  </si>
+  <si>
+    <t>Tails</t>
+  </si>
+  <si>
+    <t>Whiskers</t>
+  </si>
+  <si>
+    <t>Pipsqueak</t>
+  </si>
+  <si>
+    <t>Pygmy</t>
+  </si>
+  <si>
+    <t>Hippity</t>
+  </si>
+  <si>
+    <t>Give_Hoot</t>
+  </si>
+  <si>
+    <t>Rabid_Bat</t>
+  </si>
+  <si>
+    <t>Garden_Gnomes</t>
+  </si>
+  <si>
+    <t>Moggy</t>
+  </si>
+  <si>
+    <t>Around_Azeroth</t>
+  </si>
+  <si>
+    <t>Piñata</t>
+  </si>
+  <si>
+    <t>Squirrel_Survival</t>
+  </si>
+  <si>
+    <t>Digger</t>
+  </si>
+  <si>
+    <t>Humdinger</t>
+  </si>
+  <si>
+    <t>Bird_Feeder</t>
+  </si>
+  <si>
+    <t>Rootin_Tootin</t>
+  </si>
+  <si>
+    <t>BRIEF_CASE</t>
+  </si>
+  <si>
+    <t>Traks</t>
+  </si>
+  <si>
+    <t>Pumba</t>
+  </si>
+  <si>
+    <t>Flappy</t>
+  </si>
+  <si>
+    <t>Pollys</t>
+  </si>
+  <si>
+    <t>Kitty_Kitty</t>
+  </si>
+  <si>
+    <t>Tail_Wag</t>
+  </si>
+  <si>
+    <t>Prickle</t>
+  </si>
+  <si>
+    <t>Interview_SXSW</t>
+  </si>
+  <si>
+    <t>Demon</t>
+  </si>
+  <si>
+    <t>Skippyjon_Jones</t>
+  </si>
+  <si>
+    <t>Cornfed</t>
+  </si>
+  <si>
+    <t>Roo</t>
+  </si>
+  <si>
+    <t>Snuffleupagus</t>
+  </si>
+  <si>
+    <t>Flying_Dutchman_Wagner</t>
+  </si>
+  <si>
+    <t>Binkie</t>
+  </si>
+  <si>
+    <t>Puppy_Found</t>
+  </si>
+  <si>
+    <t>Spelunking</t>
+  </si>
+  <si>
+    <t>Hotdog</t>
+  </si>
+  <si>
+    <t>Mee_Shee</t>
+  </si>
+  <si>
+    <t>PUBLIC_ADDRESS_##/##/##</t>
+  </si>
+  <si>
+    <t>Tater_Salad</t>
+  </si>
+  <si>
+    <t>Alligator_Found</t>
+  </si>
+  <si>
+    <t>Foxie</t>
+  </si>
+  <si>
+    <t>Appétit</t>
+  </si>
+  <si>
+    <t>Birthday_Quiz</t>
+  </si>
+  <si>
+    <t>Bronx_Zoo_Cobra</t>
+  </si>
+  <si>
+    <t>Teethers</t>
+  </si>
+  <si>
+    <t>Belly_Button</t>
+  </si>
+  <si>
+    <t>Floozies</t>
+  </si>
+  <si>
+    <t>Pet_Tricks</t>
+  </si>
+  <si>
+    <t>Toupee</t>
+  </si>
+  <si>
+    <t>Cried_Wolf</t>
+  </si>
+  <si>
+    <t>Mojo_Risin</t>
+  </si>
+  <si>
+    <t>Eyed_Monster</t>
+  </si>
+  <si>
+    <t>Have_Eaten</t>
+  </si>
+  <si>
+    <t>Meanies</t>
+  </si>
+  <si>
+    <t>Who_Swallowed</t>
+  </si>
+  <si>
+    <t>Thunda</t>
+  </si>
+  <si>
+    <t>Woof</t>
+  </si>
+  <si>
+    <t>Raggy</t>
+  </si>
+  <si>
+    <t>Venomous</t>
+  </si>
+  <si>
+    <t>Pudgy</t>
+  </si>
+  <si>
+    <t>Breaks_Loose</t>
+  </si>
+  <si>
+    <t>Snake_Bites</t>
+  </si>
+  <si>
+    <t>Twice_Bitten</t>
+  </si>
+  <si>
+    <t>Flightless</t>
+  </si>
+  <si>
+    <t>unplaced_mare</t>
+  </si>
+  <si>
+    <t>MySpace_Trawl</t>
+  </si>
+  <si>
+    <t>Smoken</t>
+  </si>
+  <si>
+    <t>Calibur</t>
+  </si>
+  <si>
+    <t>Egghead</t>
+  </si>
+  <si>
+    <t>THE_ROCKWOOD_FILES</t>
+  </si>
+  <si>
+    <t>Paddys</t>
+  </si>
+  <si>
+    <t>Mollys</t>
+  </si>
+  <si>
+    <t>Giddy_Up</t>
+  </si>
+  <si>
+    <t>Milk_Carton</t>
+  </si>
+  <si>
+    <t>Exotic_Bird</t>
+  </si>
+  <si>
+    <t>Piddle</t>
+  </si>
+  <si>
+    <t>visit_www.Heloise.com</t>
+  </si>
+  <si>
+    <t>Walkies</t>
+  </si>
+  <si>
+    <t>Ornery</t>
+  </si>
+  <si>
+    <t>Cowabunga</t>
+  </si>
+  <si>
+    <t>Fuckers</t>
+  </si>
+  <si>
+    <t>Grizwald</t>
+  </si>
+  <si>
+    <t>Dimples</t>
+  </si>
+  <si>
+    <t>Chomps</t>
+  </si>
+  <si>
+    <t>Yabby</t>
+  </si>
+  <si>
+    <t>Gyp</t>
+  </si>
+  <si>
+    <t>Dress_Lookbook</t>
+  </si>
+  <si>
+    <t>Extremely_Bad_Advice</t>
+  </si>
+  <si>
+    <t>Time_Forgot</t>
+  </si>
+  <si>
+    <t>Breeches</t>
+  </si>
+  <si>
+    <t>Drippy</t>
+  </si>
+  <si>
+    <t>Squeakers</t>
+  </si>
+  <si>
+    <t>She'sA</t>
+  </si>
+  <si>
+    <t>Shouty</t>
+  </si>
+  <si>
+    <t>Boogers</t>
+  </si>
+  <si>
+    <t>Monsta</t>
+  </si>
+  <si>
+    <t>Quacky</t>
+  </si>
+  <si>
+    <t>Erasers</t>
+  </si>
+  <si>
+    <t>Miss_Muffet</t>
+  </si>
+  <si>
+    <t>Dweller</t>
+  </si>
+  <si>
+    <t>Identical_Triplets</t>
+  </si>
+  <si>
+    <t>Gobstopper</t>
+  </si>
+  <si>
+    <t>Trog</t>
+  </si>
+  <si>
+    <t>O'the</t>
+  </si>
+  <si>
+    <t>Litte</t>
+  </si>
+  <si>
+    <t>Dipstick</t>
+  </si>
+  <si>
+    <t>Truffle_Shuffle</t>
+  </si>
+  <si>
+    <t>Scaredy</t>
+  </si>
+  <si>
+    <t>Creeper</t>
+  </si>
+  <si>
+    <t>Uncaged</t>
+  </si>
+  <si>
+    <t>Domo_Arigato</t>
+  </si>
+  <si>
+    <t>Procession_Carries_Lady</t>
+  </si>
+  <si>
+    <t>Legless</t>
+  </si>
+  <si>
+    <t>Knicker</t>
+  </si>
+  <si>
+    <t>Arwon</t>
+  </si>
+  <si>
+    <t>Mouse_Ears</t>
+  </si>
+  <si>
+    <t>Driftwoods</t>
+  </si>
+  <si>
+    <t>Exotic_Animal</t>
+  </si>
+  <si>
+    <t>Causes_Power_Outage</t>
+  </si>
+  <si>
+    <t>Beak</t>
+  </si>
+  <si>
+    <t>Loggerhead_Sea</t>
+  </si>
+  <si>
+    <t>Pearl_Necklace</t>
+  </si>
+  <si>
+    <t>Sweeter_Than</t>
+  </si>
+  <si>
+    <t>Jumpoff</t>
+  </si>
+  <si>
+    <t>Hungry_Hippos</t>
+  </si>
+  <si>
+    <t>Duct_Taped</t>
+  </si>
+  <si>
+    <t>Spook</t>
+  </si>
+  <si>
+    <t>Snickerdoodle</t>
+  </si>
+  <si>
+    <t>Panthro</t>
+  </si>
+  <si>
+    <t>Flying_Tomato_Shaun</t>
+  </si>
+  <si>
+    <t>Lil_Bro</t>
+  </si>
+  <si>
+    <t>M._Polkey</t>
+  </si>
+  <si>
+    <t>Long_Eared</t>
+  </si>
+  <si>
+    <t>Wonderful_Wacky</t>
+  </si>
+  <si>
+    <t>Roams</t>
+  </si>
+  <si>
+    <t>Sausage_Sizzle</t>
+  </si>
+  <si>
+    <t>Pork_Rinds</t>
+  </si>
+  <si>
+    <t>Farts</t>
+  </si>
+  <si>
+    <t>Hairiest</t>
+  </si>
+  <si>
+    <t>D_Charlino</t>
+  </si>
+  <si>
+    <t>Antlers_craze</t>
+  </si>
+  <si>
+    <t>Tricia_Tanaka</t>
+  </si>
+  <si>
+    <t>Reigned</t>
+  </si>
+  <si>
+    <t>Spike</t>
+  </si>
+  <si>
+    <t>Found_Burned</t>
+  </si>
+  <si>
+    <t>Battleaxe</t>
+  </si>
+  <si>
+    <t>Russels</t>
+  </si>
+  <si>
+    <t>Woman_Mauled</t>
+  </si>
+  <si>
+    <t>Washed_Ashore</t>
+  </si>
+  <si>
+    <t>Square_Tolworth_Hurdle</t>
+  </si>
+  <si>
+    <t>Crouton</t>
+  </si>
+  <si>
+    <t>Squeezy</t>
+  </si>
+  <si>
+    <t>lactose_intolerant_Henrietta</t>
+  </si>
+  <si>
+    <t>Coochie</t>
+  </si>
+  <si>
+    <t>Cat_Survives</t>
+  </si>
+  <si>
+    <t>Birdwatcher</t>
+  </si>
+  <si>
+    <t>Razor_Blade</t>
+  </si>
+  <si>
+    <t>Bonez</t>
+  </si>
+  <si>
+    <t>Schtick</t>
+  </si>
+  <si>
+    <t>Apso</t>
+  </si>
+  <si>
+    <t>Fuzzy</t>
+  </si>
+  <si>
+    <t>Chilly_Willy</t>
+  </si>
+  <si>
+    <t>Stringbean</t>
+  </si>
+  <si>
+    <t>Milky</t>
+  </si>
+  <si>
+    <t>Wheezer</t>
+  </si>
+  <si>
+    <t>Lend_Me_Your</t>
+  </si>
+  <si>
+    <t>Grifter</t>
+  </si>
+  <si>
+    <t>Bubblehead</t>
+  </si>
+  <si>
+    <t>Jangles</t>
+  </si>
+  <si>
+    <t>Scissors_Paper</t>
+  </si>
+  <si>
+    <t>Paying_Homage</t>
+  </si>
+  <si>
+    <t>Buddys</t>
+  </si>
+  <si>
+    <t>ALONG_THE_TRAIL</t>
+  </si>
+  <si>
+    <t>Baa_Baa</t>
+  </si>
+  <si>
+    <t>macaroni_penguin</t>
+  </si>
+  <si>
+    <t>Noahs_Ark</t>
+  </si>
+  <si>
+    <t>F_*_cker</t>
+  </si>
+  <si>
+    <t>Actress_Judy_Geeson</t>
+  </si>
+  <si>
+    <t>Four_Legged</t>
+  </si>
+  <si>
+    <t>Skinning</t>
+  </si>
+  <si>
+    <t>Spooky</t>
+  </si>
+  <si>
+    <t>Stinkers</t>
+  </si>
+  <si>
+    <t>Diddly</t>
+  </si>
+  <si>
+    <t>Flapjacks</t>
+  </si>
+  <si>
+    <t>Two_Fisted</t>
+  </si>
+  <si>
+    <t>Animatronic</t>
+  </si>
+  <si>
+    <t>Trod</t>
+  </si>
+  <si>
+    <t>Hairless</t>
+  </si>
+  <si>
+    <t>Pinchy</t>
+  </si>
+  <si>
+    <t>Spinach_E._Coli</t>
+  </si>
+  <si>
+    <t>Lab_Rat</t>
+  </si>
+  <si>
+    <t>Rapper_Snoop</t>
+  </si>
+  <si>
+    <t>Numbskull</t>
+  </si>
+  <si>
+    <t>Copy_Cat</t>
+  </si>
+  <si>
+    <t>Scallywag</t>
+  </si>
+  <si>
+    <t>Peeve</t>
+  </si>
+  <si>
+    <t>Spooky_Halloween</t>
+  </si>
+  <si>
+    <t>Whities</t>
+  </si>
+  <si>
+    <t>Pound_Puppy</t>
+  </si>
+  <si>
+    <t>Red_Riding_Hoods</t>
+  </si>
+  <si>
+    <t>Forked</t>
+  </si>
+  <si>
+    <t>Being_Eaten</t>
+  </si>
+  <si>
+    <t>Big_Boned</t>
+  </si>
+  <si>
+    <t>Devil</t>
+  </si>
+  <si>
+    <t>Werewolf_Bar_Mitzvah</t>
+  </si>
+  <si>
+    <t>Petting</t>
+  </si>
+  <si>
+    <t>Longest_Tail</t>
+  </si>
+  <si>
+    <t>Be_Eaten</t>
+  </si>
+  <si>
+    <t>Don_Jergler_Realty</t>
+  </si>
+  <si>
+    <t>Dorky</t>
+  </si>
+  <si>
+    <t>Subrosa</t>
+  </si>
+  <si>
+    <t>Giles_Andreae</t>
+  </si>
+  <si>
+    <t>Boogy</t>
+  </si>
+  <si>
+    <t>Sweetpea</t>
+  </si>
+  <si>
+    <t>Swirly</t>
+  </si>
+  <si>
+    <t>Thimble</t>
+  </si>
+  <si>
+    <t>Whistling</t>
+  </si>
+  <si>
+    <t>Snowball</t>
+  </si>
+  <si>
+    <t>Caped</t>
+  </si>
+  <si>
+    <t>Tibetan_Terrier</t>
+  </si>
+  <si>
+    <t>Freckled</t>
+  </si>
+  <si>
+    <t>Columbia_TriStar_DVD</t>
+  </si>
+  <si>
+    <t>Nappers</t>
+  </si>
+  <si>
+    <t>Goes_Bananas</t>
+  </si>
+  <si>
+    <t>Driver_Slams_Into</t>
+  </si>
+  <si>
+    <t>Cutest_Pet</t>
+  </si>
+  <si>
+    <t>Bottle_Opener</t>
+  </si>
+  <si>
+    <t>Turtle_Bookshop</t>
+  </si>
+  <si>
+    <t>Appetit</t>
+  </si>
+  <si>
+    <t>Jungle</t>
+  </si>
+  <si>
+    <t>Headband</t>
+  </si>
+  <si>
+    <t>Romper</t>
+  </si>
+  <si>
+    <t>Found_Wandering</t>
+  </si>
+  <si>
+    <t>Shama_Lama</t>
+  </si>
+  <si>
+    <t>Stumpy</t>
+  </si>
+  <si>
+    <t>Gorilla_Veterinary</t>
+  </si>
+  <si>
+    <t>Honey_Pie</t>
+  </si>
+  <si>
+    <t>Crevasse</t>
+  </si>
+  <si>
+    <t>Narcoleptic</t>
+  </si>
+  <si>
+    <t>ColdTowne</t>
+  </si>
+  <si>
+    <t>Pot_Kettle</t>
+  </si>
+  <si>
+    <t>Phatt</t>
+  </si>
+  <si>
+    <t>EUR_FILM_REVIEW</t>
+  </si>
+  <si>
+    <t>Tattered_Cover_Cherry</t>
+  </si>
+  <si>
+    <t>Stereogum_Premiere</t>
+  </si>
+  <si>
+    <t>Constant_Companion</t>
+  </si>
+  <si>
+    <t>fatally_mauls</t>
+  </si>
+  <si>
+    <t>Bumpkins</t>
+  </si>
+  <si>
+    <t>Hailed_Hero</t>
+  </si>
+  <si>
+    <t>Regressing</t>
+  </si>
+  <si>
+    <t>Plate_Specials</t>
+  </si>
+  <si>
+    <t>Stomper</t>
+  </si>
+  <si>
+    <t>Lois_Ehlert</t>
+  </si>
+  <si>
+    <t>Knifes</t>
+  </si>
+  <si>
+    <t>Loafer</t>
+  </si>
+  <si>
+    <t>Roarin</t>
+  </si>
+  <si>
+    <t>Daily_Hotness</t>
+  </si>
+  <si>
+    <t>Pachyderm</t>
+  </si>
+  <si>
+    <t>Yellow_bellied</t>
+  </si>
+  <si>
+    <t>Waggin</t>
+  </si>
+  <si>
+    <t>Bald_Headed</t>
+  </si>
+  <si>
+    <t>Pooh_Piglet</t>
+  </si>
+  <si>
+    <t>Pucky</t>
+  </si>
+  <si>
+    <t>Redbone_Coonhound</t>
+  </si>
+  <si>
+    <t>Motherfucking</t>
+  </si>
+  <si>
+    <t>LifeFiles</t>
+  </si>
+  <si>
+    <t>Bearly</t>
+  </si>
+  <si>
+    <t>Pogo_Stick</t>
+  </si>
+  <si>
+    <t>Dogging</t>
+  </si>
+  <si>
+    <t>Teeny_Tiny</t>
+  </si>
+  <si>
+    <t>Spuddy</t>
+  </si>
+  <si>
+    <t>Birdbath</t>
+  </si>
+  <si>
+    <t>whale_washes_ashore</t>
+  </si>
+  <si>
+    <t>Parsnip</t>
+  </si>
+  <si>
+    <t>Eternal_Optimist</t>
+  </si>
+  <si>
+    <t>Pinoy_Kasi</t>
+  </si>
+  <si>
+    <t>BLUE_ROOM_THEATRE</t>
+  </si>
+  <si>
+    <t>Operator_Sentenced</t>
+  </si>
+  <si>
+    <t>Fart</t>
+  </si>
+  <si>
+    <t>Moose_Saloon</t>
+  </si>
+  <si>
+    <t>Heave_Ho</t>
+  </si>
+  <si>
+    <t>Causes_Bomb_Scare</t>
+  </si>
+  <si>
+    <t>C4_9pm</t>
+  </si>
+  <si>
+    <t>Poobah</t>
+  </si>
+  <si>
+    <t>Saurus</t>
+  </si>
+  <si>
+    <t>Bellyache</t>
+  </si>
+  <si>
+    <t>Twerp</t>
+  </si>
+  <si>
+    <t>Knocker</t>
+  </si>
+  <si>
+    <t>Short_Leash</t>
+  </si>
+  <si>
+    <t>Nerada</t>
+  </si>
+  <si>
+    <t>Daddys</t>
+  </si>
+  <si>
+    <t>Mad_Trapper</t>
+  </si>
+  <si>
+    <t>Bullwhip</t>
+  </si>
+  <si>
+    <t>Cuddler</t>
+  </si>
+  <si>
+    <t>Hot_Diggity</t>
+  </si>
+  <si>
+    <t>Twinkles</t>
+  </si>
+  <si>
+    <t>Queensland_Heeler</t>
+  </si>
+  <si>
+    <t>Leashed</t>
+  </si>
+  <si>
+    <t>Teaze</t>
+  </si>
+  <si>
+    <t>TM_Putters</t>
+  </si>
+  <si>
+    <t>Dipsy_Doodle</t>
+  </si>
+  <si>
+    <t>Trickster_Tales</t>
+  </si>
+  <si>
+    <t>Timey</t>
+  </si>
+  <si>
+    <t>Creature_Comfort</t>
+  </si>
+  <si>
+    <t>Hermaphrodite</t>
+  </si>
+  <si>
+    <t>Peek_Boo</t>
+  </si>
+  <si>
+    <t>singer_Eric_Burdon</t>
+  </si>
+  <si>
+    <t>Hurtles</t>
+  </si>
+  <si>
+    <t>Witchy</t>
+  </si>
+  <si>
+    <t>Banjo</t>
+  </si>
+  <si>
+    <t>Gepetto</t>
+  </si>
+  <si>
+    <t>Tablecloth</t>
+  </si>
+  <si>
+    <t>shoujo_anime</t>
+  </si>
+  <si>
+    <t>Speed_Manual_FI</t>
+  </si>
+  <si>
+    <t>Transformers_Mosaic</t>
+  </si>
+  <si>
+    <t>Quacking</t>
+  </si>
+  <si>
+    <t>Shelter_Tails</t>
+  </si>
+  <si>
+    <t>bassett_hound</t>
+  </si>
+  <si>
+    <t>Coat_Rack</t>
+  </si>
+  <si>
+    <t>Lil_Slugger</t>
+  </si>
+  <si>
+    <t>Tracks_CD1</t>
+  </si>
+  <si>
+    <t>Alakazam</t>
+  </si>
+  <si>
+    <t>Loves_Ya</t>
+  </si>
+  <si>
+    <t>Attractor</t>
+  </si>
+  <si>
+    <t>Dragonflight</t>
+  </si>
+  <si>
+    <t>Gypsey</t>
+  </si>
+  <si>
+    <t>Supernatural_Episode</t>
+  </si>
+  <si>
+    <t>Poop</t>
+  </si>
+  <si>
+    <t>Whistlin</t>
+  </si>
+  <si>
+    <t>Bluz</t>
+  </si>
+  <si>
+    <t>Upper_Lip</t>
+  </si>
+  <si>
+    <t>Flaneur</t>
+  </si>
+  <si>
+    <t>Pink_Pig</t>
+  </si>
+  <si>
+    <t>STRANGE_BUT_TRUE</t>
+  </si>
+  <si>
+    <t>Rare_Albino</t>
+  </si>
+  <si>
+    <t>Boy</t>
+  </si>
+  <si>
+    <t>Arounds</t>
+  </si>
+  <si>
+    <t>Waffle</t>
+  </si>
+  <si>
+    <t>Opinionist</t>
+  </si>
+  <si>
+    <t>Drinky</t>
+  </si>
+  <si>
+    <t>Wuz</t>
+  </si>
+  <si>
+    <t>Woofy</t>
+  </si>
+  <si>
+    <t>Krusty_Burger</t>
+  </si>
+  <si>
+    <t>NATURAL_HISTORY_MUSEUM</t>
+  </si>
+  <si>
+    <t>Powerful_Storms</t>
+  </si>
+  <si>
+    <t>Old_Geezers</t>
+  </si>
+  <si>
+    <t>Incredibly_Shrinking</t>
+  </si>
+  <si>
+    <t>Weakling</t>
+  </si>
+  <si>
+    <t>Bus_Plunges_Off</t>
+  </si>
+  <si>
+    <t>Shake_Em</t>
+  </si>
+  <si>
+    <t>Jackers</t>
+  </si>
+  <si>
+    <t>Wars_Episode</t>
+  </si>
+  <si>
+    <t>Who_dunnit</t>
+  </si>
+  <si>
+    <t>Sugar_Coated</t>
+  </si>
+  <si>
+    <t>Limpy</t>
+  </si>
+  <si>
+    <t>Quaking</t>
+  </si>
+  <si>
+    <t>Chirping</t>
+  </si>
+  <si>
+    <t>Alleged_Burglar</t>
+  </si>
+  <si>
+    <t>Jack_O'Lantern</t>
+  </si>
+  <si>
+    <t>Cherry_Cola</t>
+  </si>
+  <si>
+    <t>Jonesin</t>
+  </si>
+  <si>
+    <t>Cardboard_Box</t>
+  </si>
+  <si>
+    <t>Phlat</t>
+  </si>
+  <si>
+    <t>Fonzy</t>
+  </si>
+  <si>
+    <t>Wendigo</t>
+  </si>
+  <si>
+    <t>Repeller</t>
+  </si>
+  <si>
+    <t>Petunia</t>
+  </si>
+  <si>
+    <t>Eat_Your_Own</t>
+  </si>
+  <si>
+    <t>Rat_Tail</t>
+  </si>
+  <si>
+    <t>Gamekeeper</t>
+  </si>
+  <si>
+    <t>Frite</t>
+  </si>
+  <si>
+    <t>Mountan</t>
+  </si>
+  <si>
+    <t>Electrocute</t>
+  </si>
+  <si>
+    <t>Yoga_Pose</t>
+  </si>
+  <si>
+    <t>Testicles</t>
+  </si>
+  <si>
+    <t>Proboscis</t>
+  </si>
+  <si>
+    <t>Blobby</t>
+  </si>
+  <si>
+    <t>Girlish</t>
+  </si>
+  <si>
+    <t>Fried_Egg</t>
+  </si>
+  <si>
+    <t>Bucket</t>
+  </si>
+  <si>
+    <t>Soxy</t>
+  </si>
+  <si>
+    <t>Eye_Nebula</t>
+  </si>
+  <si>
+    <t>Masturbator</t>
+  </si>
+  <si>
+    <t>Trolly</t>
+  </si>
+  <si>
+    <t>Booda</t>
+  </si>
+  <si>
+    <t>Bulbasaur</t>
+  </si>
+  <si>
+    <t>Crack_Addict</t>
+  </si>
+  <si>
+    <t>dachsund</t>
+  </si>
+  <si>
+    <t>Scats</t>
+  </si>
+  <si>
+    <t>Abominable_Snowmen</t>
+  </si>
+  <si>
+    <t>Neighbor_Saves</t>
+  </si>
+  <si>
+    <t>Runneth_Over</t>
+  </si>
+  <si>
+    <t>Found_Asleep</t>
+  </si>
+  <si>
+    <t>Stolen_Pixels_#</t>
+  </si>
+  <si>
+    <t>Chopped_Liver</t>
+  </si>
+  <si>
+    <t>RIDGERUNNER_REPORTS</t>
+  </si>
+  <si>
+    <t>Party_Pooper</t>
+  </si>
+  <si>
+    <t>Scrumpy</t>
+  </si>
+  <si>
+    <t>Entrails</t>
+  </si>
+  <si>
+    <t>Titty</t>
+  </si>
+  <si>
+    <t>Claw</t>
+  </si>
+  <si>
+    <t>Scar</t>
+  </si>
+  <si>
+    <t>Spiky</t>
+  </si>
+  <si>
+    <t>Toadstool</t>
+  </si>
+  <si>
+    <t>Dog_Survives</t>
+  </si>
+  <si>
+    <t>False_Teeth</t>
+  </si>
+  <si>
+    <t>Shepherdess</t>
+  </si>
+  <si>
+    <t>Icy_Pond</t>
+  </si>
+  <si>
+    <t>Adopts_Baby</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4811,6 +7452,11 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -5160,7 +7806,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -5194,6 +7840,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - הדגשה1 2" xfId="21" xr:uid="{DFA754E3-F8B6-414B-865E-1F9147EF3D46}"/>
@@ -5520,7 +8167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2056"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A1103" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A1103" workbookViewId="0">
       <selection activeCell="G1123" sqref="G1123"/>
     </sheetView>
   </sheetViews>
@@ -23722,4 +26369,4429 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BCBB88-EB20-4FE9-9853-5AEACCACF1D8}">
+  <dimension ref="A1:A882"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="13" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="13" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="13" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="13" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="13" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="13" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="13" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="13" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="13" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="13" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="13" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="13" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="13" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="13" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="13" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="13" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="13" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="13" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="13" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="13" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="13" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="13" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="13" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="13" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="13" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="13" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="13" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="13" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="13" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="13" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="13" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="13" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="13" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="13" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="13" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="13" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="13" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="13" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="13" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="13" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="13" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="13" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="13" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="13" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="13" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="13" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="13" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="13" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="13" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="13" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="13" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="13" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="13" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="13" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="13" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="13" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="13" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="13" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="13" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="13" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="13" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="13" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="13" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="13" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="13" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="13" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="13" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="13" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="13" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="13" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="13" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="13" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="13" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="13" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="13" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="13" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="13" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="13" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="13" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="13" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="13" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="13" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="13" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="13" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="13" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="13" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="13" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="13" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="13" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="13" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="13" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="13" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="13" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="13" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="13" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="13" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="13" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="13" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="13" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="13" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="13" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="13" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="13" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="13" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="13" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="13" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="13" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="13" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="13" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="13" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="13" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="13" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="13" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="13" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="13" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="13" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="13" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="13" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="13" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="13" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="13" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="13" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="13" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="13" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="13" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="13" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="13" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="13" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="13" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="13" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="13" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="13" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="13" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="13" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="13" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="13" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="13" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="13" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="13" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="13" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="13" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="13" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="13" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="13" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="13" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="13" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="13" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="13" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="13" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="13" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="13" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="13" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="13" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="13" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="13" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="13" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="13" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="13" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="13" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="13" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="13" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="13" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="13" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="13" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="13" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="13" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="13" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="13" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="13" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="13" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="13" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="13" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="13" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="13" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="13" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="13" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="13" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="13" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="13" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="13" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="13" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="13" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="13" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="13" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="13" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="13" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="13" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="13" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="13" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="13" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="13" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="13" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="13" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="13" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="13" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="13" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="13" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="13" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="13" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="13" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="13" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="13" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="13" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="13" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="13" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="13" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="13" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="13" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="13" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="13" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="13" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="13" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="13" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="13" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="13" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="13" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="13" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="13" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="13" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="13" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="13" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="13" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="13" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="13" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="13" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="13" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="13" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="13" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="13" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="13" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="13" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="13" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="13" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="13" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="13" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="13" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="13" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="13" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="13" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="13" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="13" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="13" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="13" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="13" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="13" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="13" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="13" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="13" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="13" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="13" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="13" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="13" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="13" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="13" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="13" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="13" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="13" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="13" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="13" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="13" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="13" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="13" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="13" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="13" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="13" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="13" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="13" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="13" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="13" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="13" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="13" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="13" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="13" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="13" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="13" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="13" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="13" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="13" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="13" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="13" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="13" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="13" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="13" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="13" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="13" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="13" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="13" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="13" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="13" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="13" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="13" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="13" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="13" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="13" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="13" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="13" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="13" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="13" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="13" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="13" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="13" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="13" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="13" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="13" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="13" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="13" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="13" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="13" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="13" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="13" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="13" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="13" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="13" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="13" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="13" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="13" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="13" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="13" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="13" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="13" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="13" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="13" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="13" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="13" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="13" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="13" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="13" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="13" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="13" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="13" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="13" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="13" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="13" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="13" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="13" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="13" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="13" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="13" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="13" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="13" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="13" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="13" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="13" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="13" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="13" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="13" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="13" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="13" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="13" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="13" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="13" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="13" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="13" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="13" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="13" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="13" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="13" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="13" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="13" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="13" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="13" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="13" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="13" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="13" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="13" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="13" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="13" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="13" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="13" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="13" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="13" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="13" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="13" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="13" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="13" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="13" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="13" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="13" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="13" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="13" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="13" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="13" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="13" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="13" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="13" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="13" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="13" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="13" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="13" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="13" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="13" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="13" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="13" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" s="13" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="13" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="13" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="13" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="13" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="13" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="13" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="13" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="13" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="13" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="13" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="13" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="13" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="13" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="13" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="13" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="13" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="13" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="13" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="13" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="13" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="13" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" s="13" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="13" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="13" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="13" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="13" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="13" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="13" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="13" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="13" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="13" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="13" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" s="13" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="13" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="13" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="13" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="13" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="13" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="13" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="13" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="13" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" s="13" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="13" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" s="13" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" s="13" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" s="13" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="13" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="13" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="13" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="13" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="13" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="13" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="13" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="13" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" s="13" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="13" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="13" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="13" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="13" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="13" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="13" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="13" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="13" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="13" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="13" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="13" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="13" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="13" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="13" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="13" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="13" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" s="13" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="13" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="13" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" s="13" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" s="13" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" s="13" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" s="13" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" s="13" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" s="13" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="13" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="13" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" s="13" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" s="13" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="13" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="13" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" s="13" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="13" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" s="13" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="13" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="13" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="13" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="13" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="13" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="13" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="13" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="13" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="13" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="13" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="13" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="13" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="13" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="13" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="13" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="13" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" s="13" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" s="13" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="13" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="13" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" s="13" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" s="13" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" s="13" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" s="13" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" s="13" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" s="13" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" s="13" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" s="13" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="13" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" s="13" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="13" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" s="13" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" s="13" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" s="13" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" s="13" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" s="13" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" s="13" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" s="13" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" s="13" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="13" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" s="13" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" s="13" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" s="13" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" s="13" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" s="13" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" s="13" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" s="13" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" s="13" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" s="13" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" s="13" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" s="13" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" s="13" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" s="13" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" s="13" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" s="13" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" s="13" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" s="13" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" s="13" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" s="13" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" s="13" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" s="13" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" s="13" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" s="13" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" s="13" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" s="13" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" s="13" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" s="13" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" s="13" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" s="13" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" s="13" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" s="13" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" s="13" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" s="13" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" s="13" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" s="13" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" s="13" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" s="13" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" s="13" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" s="13" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" s="13" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" s="13" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" s="13" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" s="13" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" s="13" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" s="13" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" s="13" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" s="13" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" s="13" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" s="13" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" s="13" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576" s="13" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" s="13" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578" s="13" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579" s="13" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" s="13" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" s="13" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" s="13" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" s="13" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" s="13" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" s="13" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" s="13" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" s="13" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588" s="13" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" s="13" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590" s="13" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" s="13" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592" s="13" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" s="13" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594" s="13" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" s="13" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" s="13" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" s="13" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" s="13" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" s="13" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" s="13" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" s="13" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602" s="13" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" s="13" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604" s="13" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605" s="13" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606" s="13" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607" s="13" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608" s="13" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609" s="13" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610" s="13" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611" s="13" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612" s="13" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613" s="13" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614" s="13" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615" s="13" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616" s="13" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617" s="13" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618" s="13" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619" s="13" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620" s="13" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621" s="13" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622" s="13" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623" s="13" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624" s="13" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625" s="13" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626" s="13" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627" s="13" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628" s="13" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629" s="13" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630" s="13" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" s="13" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" s="13" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633" s="13" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" s="13" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635" s="13" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636" s="13" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637" s="13" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638" s="13" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639" s="13" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640" s="13" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641" s="13" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642" s="13" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" s="13" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644" s="13" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645" s="13" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646" s="13" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647" s="13" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648" s="13" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649" s="13" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650" s="13" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651" s="13" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652" s="13" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653" s="13" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654" s="13" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655" s="13" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656" s="13" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657" s="13" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658" s="13" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659" s="13" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660" s="13" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661" s="13" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662" s="13" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663" s="13" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664" s="13" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665" s="13" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666" s="13" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667" s="13" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668" s="13" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669" s="13" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670" s="13" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671" s="13" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672" s="13" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673" s="13" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674" s="13" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675" s="13" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676" s="13" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677" s="13" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678" s="13" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679" s="13" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680" s="13" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681" s="13" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682" s="13" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683" s="13" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685" s="13" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686" s="13" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687" s="13" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688" s="13" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689" s="13" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690" s="13" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691" s="13" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692" s="13" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693" s="13" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694" s="13" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695" s="13" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696" s="13" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697" s="13" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698" s="13" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699" s="13" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700" s="13" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701" s="13" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702" s="13" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703" s="13" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704" s="13" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705" s="13" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706" s="13" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707" s="13" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708" s="13" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709" s="13" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710" s="13" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711" s="13" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712" s="13" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713" s="13" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714" s="13" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715" s="13" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716" s="13" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717" s="13" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718" s="13" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719" s="13" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720" s="13" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721" s="13" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722" s="13" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723" s="13" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724" s="13" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725" s="13" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726" s="13" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727" s="13" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728" s="13" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729" s="13" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730" s="13" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731" s="13" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732" s="13" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733" s="13" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734" s="13" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735" s="13" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736" s="13" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737" s="13" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738" s="13" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1">
+      <c r="A739" s="13" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1">
+      <c r="A740" s="13" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741" s="13" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742" s="13" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743" s="13" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744" s="13" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1">
+      <c r="A745" s="13" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746" s="13" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1">
+      <c r="A747" s="13" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1">
+      <c r="A748" s="13" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749" s="13" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750" s="13" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1">
+      <c r="A751" s="13" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1">
+      <c r="A752" s="13" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753" s="13" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754" s="13" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755" s="13" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756" s="13" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757" s="13" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1">
+      <c r="A758" s="13" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759" s="13" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760" s="13" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1">
+      <c r="A761" s="13" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762" s="13" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763" s="13" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1">
+      <c r="A764" s="13" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1">
+      <c r="A765" s="13" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766" s="13" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1">
+      <c r="A767" s="13" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1">
+      <c r="A768" s="13" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769" s="13" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1">
+      <c r="A770" s="13" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771" s="13" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772" s="13" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1">
+      <c r="A773" s="13" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1">
+      <c r="A774" s="13" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775" s="13" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776" s="13" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777" s="13" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778" s="13" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779" s="13" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780" s="13" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781" s="13" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782" s="13" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1">
+      <c r="A783" s="13" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784" s="13" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785" s="13" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786" s="13" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787" s="13" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1">
+      <c r="A788" s="13" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1">
+      <c r="A789" s="13" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1">
+      <c r="A790" s="13" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1">
+      <c r="A791" s="13" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1">
+      <c r="A792" s="13" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1">
+      <c r="A793" s="13" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1">
+      <c r="A794" s="13" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1">
+      <c r="A795" s="13" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796" s="13" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797" s="13" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1">
+      <c r="A798" s="13" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1">
+      <c r="A799" s="13" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1">
+      <c r="A800" s="13" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801" s="13" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802" s="13" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1">
+      <c r="A803" s="13" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1">
+      <c r="A804" s="13" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1">
+      <c r="A805" s="13" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1">
+      <c r="A806" s="13" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1">
+      <c r="A807" s="13" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1">
+      <c r="A808" s="13" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1">
+      <c r="A809" s="13" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1">
+      <c r="A810" s="13" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1">
+      <c r="A811" s="13" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1">
+      <c r="A812" s="13" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1">
+      <c r="A813" s="13" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1">
+      <c r="A814" s="13" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1">
+      <c r="A815" s="13" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1">
+      <c r="A816" s="13" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1">
+      <c r="A817" s="13" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1">
+      <c r="A818" s="13" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1">
+      <c r="A819" s="13" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1">
+      <c r="A820" s="13" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1">
+      <c r="A821" s="13" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1">
+      <c r="A822" s="13" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1">
+      <c r="A823" s="13" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1">
+      <c r="A824" s="13" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1">
+      <c r="A825" s="13" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1">
+      <c r="A826" s="13" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1">
+      <c r="A827" s="13" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1">
+      <c r="A828" s="13" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1">
+      <c r="A829" s="13" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1">
+      <c r="A830" s="13" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1">
+      <c r="A831" s="13" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1">
+      <c r="A832" s="13" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1">
+      <c r="A833" s="13" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1">
+      <c r="A834" s="13" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1">
+      <c r="A835" s="13" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1">
+      <c r="A836" s="13" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1">
+      <c r="A837" s="13" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838" s="13" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1">
+      <c r="A839" s="13" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1">
+      <c r="A840" s="13" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1">
+      <c r="A841" s="13" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1">
+      <c r="A842" s="13" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1">
+      <c r="A843" s="13" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1">
+      <c r="A844" s="13" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1">
+      <c r="A845" s="13" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1">
+      <c r="A846" s="13" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1">
+      <c r="A847" s="13" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1">
+      <c r="A848" s="13" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1">
+      <c r="A849" s="13" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1">
+      <c r="A850" s="13" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1">
+      <c r="A851" s="13" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1">
+      <c r="A852" s="13" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1">
+      <c r="A853" s="13" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1">
+      <c r="A854" s="13" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1">
+      <c r="A855" s="13" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1">
+      <c r="A856" s="13" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1">
+      <c r="A857" s="13" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1">
+      <c r="A858" s="13" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1">
+      <c r="A859" s="13" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1">
+      <c r="A860" s="13" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1">
+      <c r="A861" s="13" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1">
+      <c r="A862" s="13" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1">
+      <c r="A863" s="13" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1">
+      <c r="A864" s="13" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1">
+      <c r="A865" s="13" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1">
+      <c r="A866" s="13" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1">
+      <c r="A867" s="13" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1">
+      <c r="A868" s="13" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1">
+      <c r="A869" s="13" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1">
+      <c r="A870" s="13" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1">
+      <c r="A871" s="13" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1">
+      <c r="A872" s="13" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1">
+      <c r="A873" s="13" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1">
+      <c r="A874" s="13" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1">
+      <c r="A875" s="13" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1">
+      <c r="A876" s="13" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1">
+      <c r="A877" s="13" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1">
+      <c r="A878" s="13" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1">
+      <c r="A879" s="13" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1">
+      <c r="A880" s="13" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1">
+      <c r="A881" s="13" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1">
+      <c r="A882" s="13" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/animals words.xlsx
+++ b/animals words.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVI\PycharmProjects\useGensim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B652DB-EDE9-44FD-9D79-A03266A706F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901528BC-1AB9-42C4-AC8A-09B2873D2E11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="28740" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words list" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="3273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="3457">
   <si>
     <t>Aardvark</t>
   </si>
@@ -9854,13 +9854,565 @@
   </si>
   <si>
     <t>Yorkshire_terrier</t>
+  </si>
+  <si>
+    <t>Bobolink</t>
+  </si>
+  <si>
+    <t>Cats_Meow</t>
+  </si>
+  <si>
+    <t>S_Zervan</t>
+  </si>
+  <si>
+    <t>Pinup_Girl</t>
+  </si>
+  <si>
+    <t>Trippers</t>
+  </si>
+  <si>
+    <t>Egret</t>
+  </si>
+  <si>
+    <t>Sippers</t>
+  </si>
+  <si>
+    <t>Ringmasters</t>
+  </si>
+  <si>
+    <t>Mynah</t>
+  </si>
+  <si>
+    <t>Dollz</t>
+  </si>
+  <si>
+    <t>Pearly_Whites</t>
+  </si>
+  <si>
+    <t>Tamers</t>
+  </si>
+  <si>
+    <t>Wampus</t>
+  </si>
+  <si>
+    <t>Rock'N'Roll</t>
+  </si>
+  <si>
+    <t>Woodys</t>
+  </si>
+  <si>
+    <t>Yah_Yah</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>Jewelled</t>
+  </si>
+  <si>
+    <t>Gruv</t>
+  </si>
+  <si>
+    <t>Double_crested_Cormorant</t>
+  </si>
+  <si>
+    <t>Cool_Breeze</t>
+  </si>
+  <si>
+    <t>Captive_bred</t>
+  </si>
+  <si>
+    <t>Brokedown</t>
+  </si>
+  <si>
+    <t>Cotley</t>
+  </si>
+  <si>
+    <t>Whale_Spotted</t>
+  </si>
+  <si>
+    <t>Swingset</t>
+  </si>
+  <si>
+    <t>Willies</t>
+  </si>
+  <si>
+    <t>Lucky_Leprechaun</t>
+  </si>
+  <si>
+    <t>Wubbzy</t>
+  </si>
+  <si>
+    <t>Silverfish</t>
+  </si>
+  <si>
+    <t>Zany</t>
+  </si>
+  <si>
+    <t>Yabba_Dabba_Doo</t>
+  </si>
+  <si>
+    <t>Droids_Attack</t>
+  </si>
+  <si>
+    <t>Slink</t>
+  </si>
+  <si>
+    <t>CASINO_NIAGARA</t>
+  </si>
+  <si>
+    <t>dart_frogs</t>
+  </si>
+  <si>
+    <t>Schlong</t>
+  </si>
+  <si>
+    <t>Bushtucker</t>
+  </si>
+  <si>
+    <t>Evenflo_Recalls</t>
+  </si>
+  <si>
+    <t>Jabroni</t>
+  </si>
+  <si>
+    <t>Punx</t>
+  </si>
+  <si>
+    <t>Pint_Sized</t>
+  </si>
+  <si>
+    <t>Arowana</t>
+  </si>
+  <si>
+    <t>Wallies</t>
+  </si>
+  <si>
+    <t>Fanci</t>
+  </si>
+  <si>
+    <t>Stranded_Whales</t>
+  </si>
+  <si>
+    <t>Bubblegum</t>
+  </si>
+  <si>
+    <t>Fishies</t>
+  </si>
+  <si>
+    <t>Geezer</t>
+  </si>
+  <si>
+    <t>Oarsman</t>
+  </si>
+  <si>
+    <t>Lochlin</t>
+  </si>
+  <si>
+    <t>Butterfish</t>
+  </si>
+  <si>
+    <t>Snip_Snip</t>
+  </si>
+  <si>
+    <t>Puss_Puss</t>
+  </si>
+  <si>
+    <t>Buteo</t>
+  </si>
+  <si>
+    <t>Frugal_Fun</t>
+  </si>
+  <si>
+    <t>Crackhouse</t>
+  </si>
+  <si>
+    <t>Outerspace</t>
+  </si>
+  <si>
+    <t>Salmonella_Outbreak_Linked</t>
+  </si>
+  <si>
+    <t>Birds</t>
+  </si>
+  <si>
+    <t>Daylight_Robbery</t>
+  </si>
+  <si>
+    <t>Red_Legged_Frog</t>
+  </si>
+  <si>
+    <t>Flesh_Eating_Bacteria</t>
+  </si>
+  <si>
+    <t>Lemur_Island</t>
+  </si>
+  <si>
+    <t>&amp;_Claws_Pet</t>
+  </si>
+  <si>
+    <t>Frog_Legs</t>
+  </si>
+  <si>
+    <t>Pufnstuf</t>
+  </si>
+  <si>
+    <t>Hoo_Ha</t>
+  </si>
+  <si>
+    <t>Corpse_Found</t>
+  </si>
+  <si>
+    <t>Shortcake</t>
+  </si>
+  <si>
+    <t>Wog</t>
+  </si>
+  <si>
+    <t>Frozen_Margarita</t>
+  </si>
+  <si>
+    <t>Flamers</t>
+  </si>
+  <si>
+    <t>camels_zebras</t>
+  </si>
+  <si>
+    <t>Pterosaur</t>
+  </si>
+  <si>
+    <t>Robber_Holds_Up</t>
+  </si>
+  <si>
+    <t>Ants</t>
+  </si>
+  <si>
+    <t>Hunter_Gatherer</t>
+  </si>
+  <si>
+    <t>Pedal_Paddle</t>
+  </si>
+  <si>
+    <t>Giant_Squid</t>
+  </si>
+  <si>
+    <t>Twig</t>
+  </si>
+  <si>
+    <t>Blooze</t>
+  </si>
+  <si>
+    <t>Girl</t>
+  </si>
+  <si>
+    <t>Repellant</t>
+  </si>
+  <si>
+    <t>Silkie</t>
+  </si>
+  <si>
+    <t>Eastern_Screech_Owl</t>
+  </si>
+  <si>
+    <t>Laughing_Gravy</t>
+  </si>
+  <si>
+    <t>Fadeaway</t>
+  </si>
+  <si>
+    <t>WowWee_Alive</t>
+  </si>
+  <si>
+    <t>Couch_Potatoes</t>
+  </si>
+  <si>
+    <t>Puddin</t>
+  </si>
+  <si>
+    <t>Porta_Puppet_Players</t>
+  </si>
+  <si>
+    <t>Another_Roadside_Attraction</t>
+  </si>
+  <si>
+    <t>Dromedary</t>
+  </si>
+  <si>
+    <t>SUV_Slams_Into</t>
+  </si>
+  <si>
+    <t>Sk8er</t>
+  </si>
+  <si>
+    <t>Rootbeer</t>
+  </si>
+  <si>
+    <t>Zedonk</t>
+  </si>
+  <si>
+    <t>Wolfies</t>
+  </si>
+  <si>
+    <t>Orchid</t>
+  </si>
+  <si>
+    <t>Molehill</t>
+  </si>
+  <si>
+    <t>Bawl</t>
+  </si>
+  <si>
+    <t>Has_Landed</t>
+  </si>
+  <si>
+    <t>Flapjack</t>
+  </si>
+  <si>
+    <t>Justine_Blazer</t>
+  </si>
+  <si>
+    <t>Oggy</t>
+  </si>
+  <si>
+    <t>Code_Geass</t>
+  </si>
+  <si>
+    <t>Poopsie</t>
+  </si>
+  <si>
+    <t>Yardsale</t>
+  </si>
+  <si>
+    <t>Stoplight</t>
+  </si>
+  <si>
+    <t>Grrls</t>
+  </si>
+  <si>
+    <t>Old_Farts</t>
+  </si>
+  <si>
+    <t>Heavier_Than</t>
+  </si>
+  <si>
+    <t>Silly_Songs</t>
+  </si>
+  <si>
+    <t>Kabocha_Squash</t>
+  </si>
+  <si>
+    <t>Sumpin</t>
+  </si>
+  <si>
+    <t>Pumpkinhead</t>
+  </si>
+  <si>
+    <t>Julie_Garwood_Ballantine</t>
+  </si>
+  <si>
+    <t>Beater</t>
+  </si>
+  <si>
+    <t>Poochie</t>
+  </si>
+  <si>
+    <t>Crash_Victim_Dies</t>
+  </si>
+  <si>
+    <t>Ugliest_Dog</t>
+  </si>
+  <si>
+    <t>Patter</t>
+  </si>
+  <si>
+    <t>Wat_er</t>
+  </si>
+  <si>
+    <t>Blueberry_Pancakes</t>
+  </si>
+  <si>
+    <t>Loses_Arm</t>
+  </si>
+  <si>
+    <t>OX4</t>
+  </si>
+  <si>
+    <t>Gun_Wielding</t>
+  </si>
+  <si>
+    <t>Bikini_Babes</t>
+  </si>
+  <si>
+    <t>Steller_Sea</t>
+  </si>
+  <si>
+    <t>sun_conures</t>
+  </si>
+  <si>
+    <t>Walmart_Parking_Lot</t>
+  </si>
+  <si>
+    <t>Loosen_Up</t>
+  </si>
+  <si>
+    <t>Light_###.#p_###.#p</t>
+  </si>
+  <si>
+    <t>Spinnerbait</t>
+  </si>
+  <si>
+    <t>Burlesque_Revue</t>
+  </si>
+  <si>
+    <t>Ugly_Bug</t>
+  </si>
+  <si>
+    <t>DJ_Icey</t>
+  </si>
+  <si>
+    <t>Spoonbills</t>
+  </si>
+  <si>
+    <t>Flower_Pot</t>
+  </si>
+  <si>
+    <t>Pet_Look_Alike</t>
+  </si>
+  <si>
+    <t>Scotty_Karate</t>
+  </si>
+  <si>
+    <t>Bait_Shack</t>
+  </si>
+  <si>
+    <t>Foot_Python</t>
+  </si>
+  <si>
+    <t>Humpback_Whales</t>
+  </si>
+  <si>
+    <t>Icey</t>
+  </si>
+  <si>
+    <t>Dumplin</t>
+  </si>
+  <si>
+    <t>Beehives</t>
+  </si>
+  <si>
+    <t>Lollies</t>
+  </si>
+  <si>
+    <t>Muncher</t>
+  </si>
+  <si>
+    <t>WORLD_CAFÉ_LIVE</t>
+  </si>
+  <si>
+    <t>Goldminer</t>
+  </si>
+  <si>
+    <t>Shags</t>
+  </si>
+  <si>
+    <t>Shrinking_Violets</t>
+  </si>
+  <si>
+    <t>Duck_Duck</t>
+  </si>
+  <si>
+    <t>Beached_Whale</t>
+  </si>
+  <si>
+    <t>Miniature_Dachshund</t>
+  </si>
+  <si>
+    <t>Hollywild</t>
+  </si>
+  <si>
+    <t>Outwits</t>
+  </si>
+  <si>
+    <t>Jurrasic</t>
+  </si>
+  <si>
+    <t>Skanky</t>
+  </si>
+  <si>
+    <t>Araucana</t>
+  </si>
+  <si>
+    <t>Flat_Tire</t>
+  </si>
+  <si>
+    <t>BCN_Healthy</t>
+  </si>
+  <si>
+    <t>fin_tuna</t>
+  </si>
+  <si>
+    <t>Aunti</t>
+  </si>
+  <si>
+    <t>Darkling</t>
+  </si>
+  <si>
+    <t>Worrier</t>
+  </si>
+  <si>
+    <t>extinct_Tasmanian</t>
+  </si>
+  <si>
+    <t>Spittin</t>
+  </si>
+  <si>
+    <t>Fairie</t>
+  </si>
+  <si>
+    <t>Churro</t>
+  </si>
+  <si>
+    <t>Potato_Pie</t>
+  </si>
+  <si>
+    <t>Mollies</t>
+  </si>
+  <si>
+    <t>Saber_Toothed_Tiger</t>
+  </si>
+  <si>
+    <t>Tiny_Tears</t>
+  </si>
+  <si>
+    <t>Licorice</t>
+  </si>
+  <si>
+    <t>TIGHT_LINES</t>
+  </si>
+  <si>
+    <t>Hawksbill_Turtle</t>
+  </si>
+  <si>
+    <t>Turtles</t>
+  </si>
+  <si>
+    <t>Too_Far_Away</t>
+  </si>
+  <si>
+    <t>BOOK_REVIEWS</t>
+  </si>
+  <si>
+    <t>Guns_Ammo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B_**_ch </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10032,6 +10584,18 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -10381,7 +10945,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -10400,6 +10964,10 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -10725,10 +11293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AC216F-559C-4988-B135-E2C7D7D78959}">
-  <dimension ref="A1:A1657"/>
+  <dimension ref="A1:A1684"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1658" sqref="B1658"/>
+    <sheetView rightToLeft="1" topLeftCell="A1653" workbookViewId="0">
+      <selection activeCell="A1684" sqref="A1684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10851,7 +11419,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="28.5">
+    <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
         <v>340</v>
       </c>
@@ -19019,6 +19587,141 @@
     <row r="1657" spans="1:1">
       <c r="A1657" s="6" t="s">
         <v>3170</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:1">
+      <c r="A1658" s="4" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:1" ht="15">
+      <c r="A1659" s="8" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:1" ht="15">
+      <c r="A1660" s="8" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:1" ht="15">
+      <c r="A1661" s="8" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:1" ht="15">
+      <c r="A1662" s="8" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:1" ht="15">
+      <c r="A1663" s="8" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:1" ht="15">
+      <c r="A1664" s="8" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:1" ht="15">
+      <c r="A1665" s="8" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:1" ht="15">
+      <c r="A1666" s="8" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:1" ht="15">
+      <c r="A1667" s="8" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:1" ht="15">
+      <c r="A1668" s="8" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:1" ht="15">
+      <c r="A1669" s="8" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:1" ht="15">
+      <c r="A1670" s="8" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:1" ht="15">
+      <c r="A1671" s="8" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:1" ht="15">
+      <c r="A1672" s="8" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:1" ht="15">
+      <c r="A1673" s="8" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:1" ht="15">
+      <c r="A1674" s="8" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:1" ht="15">
+      <c r="A1675" s="8" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:1" ht="15">
+      <c r="A1676" s="8" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:1" ht="15">
+      <c r="A1677" s="8" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:1" ht="15">
+      <c r="A1678" s="8" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:1" ht="15">
+      <c r="A1679" s="8" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:1" ht="15">
+      <c r="A1680" s="8" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:1" ht="15">
+      <c r="A1681" s="8" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:1" ht="15">
+      <c r="A1682" s="8" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:1" ht="15">
+      <c r="A1683" s="7" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:1" ht="15">
+      <c r="A1684" s="7" t="s">
+        <v>3452</v>
       </c>
     </row>
   </sheetData>
@@ -19032,10 +19735,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BCBB88-EB20-4FE9-9853-5AEACCACF1D8}">
-  <dimension ref="A1:B1623"/>
+  <dimension ref="A1:B1780"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A1598" workbookViewId="0">
-      <selection activeCell="A1598" sqref="A1:A1048576"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A1774" workbookViewId="0">
+      <selection activeCell="A1780" sqref="A1780"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -27185,6 +27888,791 @@
         <v>2474</v>
       </c>
     </row>
+    <row r="1624" spans="1:1" ht="15">
+      <c r="A1624" s="7" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:1" ht="15">
+      <c r="A1625" s="7" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:1" ht="15">
+      <c r="A1626" s="8" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:1" ht="15">
+      <c r="A1627" s="8" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:1" ht="15">
+      <c r="A1628" s="8" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:1" ht="15">
+      <c r="A1629" s="8" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:1" ht="15">
+      <c r="A1630" s="8" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:1" ht="15">
+      <c r="A1631" s="8" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:1" ht="15">
+      <c r="A1632" s="8" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:1" ht="15">
+      <c r="A1633" s="8" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:1" ht="15">
+      <c r="A1634" s="8" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:1" ht="15">
+      <c r="A1635" s="8" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:1" ht="15">
+      <c r="A1636" s="8" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:1" ht="15">
+      <c r="A1637" s="8" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:1" ht="15">
+      <c r="A1638" s="8" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:1" ht="15">
+      <c r="A1639" s="8" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:1" ht="15">
+      <c r="A1640" s="8" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:1" ht="15">
+      <c r="A1641" s="8" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:1" ht="15">
+      <c r="A1642" s="8" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:1" ht="15">
+      <c r="A1643" s="8" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:1" ht="15">
+      <c r="A1644" s="8" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:1" ht="15">
+      <c r="A1645" s="8" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:1" ht="15">
+      <c r="A1646" s="8" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:1" ht="15">
+      <c r="A1647" s="8" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:1" ht="15">
+      <c r="A1648" s="8" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:1" ht="15">
+      <c r="A1649" s="8" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:1" ht="15">
+      <c r="A1650" s="8" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:1" ht="15">
+      <c r="A1651" s="8" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:1" ht="15">
+      <c r="A1652" s="8" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:1" ht="15">
+      <c r="A1653" s="8" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:1" ht="15">
+      <c r="A1654" s="8" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:1" ht="15">
+      <c r="A1655" s="8" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:1" ht="15">
+      <c r="A1656" s="8" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:1" ht="15">
+      <c r="A1657" s="8" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:1" ht="15">
+      <c r="A1658" s="8" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:1" ht="15">
+      <c r="A1659" s="8" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:1" ht="15">
+      <c r="A1660" s="8" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:1" ht="15">
+      <c r="A1661" s="8" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:1" ht="15">
+      <c r="A1662" s="8" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:1" ht="15">
+      <c r="A1663" s="8" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:1" ht="15">
+      <c r="A1664" s="8" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:1" ht="15">
+      <c r="A1665" s="8" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:1" ht="15">
+      <c r="A1666" s="8" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:1" ht="15">
+      <c r="A1667" s="8" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:1" ht="15">
+      <c r="A1668" s="8" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:1" ht="15">
+      <c r="A1669" s="8" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:1" ht="15">
+      <c r="A1670" s="8" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:1" ht="15">
+      <c r="A1671" s="8" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:1" ht="15">
+      <c r="A1672" s="8" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:1" ht="15">
+      <c r="A1673" s="8" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:1" ht="15">
+      <c r="A1674" s="8" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:1" ht="15">
+      <c r="A1675" s="8" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:1" ht="15">
+      <c r="A1676" s="8" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:1" ht="15">
+      <c r="A1677" s="8" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:1" ht="15">
+      <c r="A1678" s="8" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:1" ht="15">
+      <c r="A1679" s="8" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:1" ht="15">
+      <c r="A1680" s="8" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:1" ht="15">
+      <c r="A1681" s="8" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:1" ht="15">
+      <c r="A1682" s="8" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:1" ht="15">
+      <c r="A1683" s="8" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:1" ht="15">
+      <c r="A1684" s="8" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:1" ht="15">
+      <c r="A1685" s="8" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:1" ht="15">
+      <c r="A1686" s="8" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:1" ht="15">
+      <c r="A1687" s="8" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:1" ht="15">
+      <c r="A1688" s="8" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:1" ht="15">
+      <c r="A1689" s="8" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:1" ht="15">
+      <c r="A1690" s="8" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:1" ht="15">
+      <c r="A1691" s="8" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:1" ht="15">
+      <c r="A1692" s="8" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:1" ht="15">
+      <c r="A1693" s="8" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:1" ht="15">
+      <c r="A1694" s="8" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:1" ht="15">
+      <c r="A1695" s="8" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:1" ht="15">
+      <c r="A1696" s="8" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:1" ht="15">
+      <c r="A1697" s="8" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:1" ht="15">
+      <c r="A1698" s="8" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:1" ht="15">
+      <c r="A1699" s="8" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:1" ht="15">
+      <c r="A1700" s="8" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:1" ht="15">
+      <c r="A1701" s="8" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:1" ht="15">
+      <c r="A1702" s="8" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:1" ht="15">
+      <c r="A1703" s="8" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:1" ht="15">
+      <c r="A1704" s="8" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:1" ht="15">
+      <c r="A1705" s="8" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:1" ht="15">
+      <c r="A1706" s="8" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:1" ht="15">
+      <c r="A1707" s="8" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:1" ht="15">
+      <c r="A1708" s="8" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:1" ht="15">
+      <c r="A1709" s="8" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:1" ht="15">
+      <c r="A1710" s="8" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:1" ht="15">
+      <c r="A1711" s="8" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:1" ht="15">
+      <c r="A1712" s="8" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:1" ht="15">
+      <c r="A1713" s="8" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:1" ht="15">
+      <c r="A1714" s="8" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:1" ht="15">
+      <c r="A1715" s="8" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:1" ht="15">
+      <c r="A1716" s="8" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:1" ht="15">
+      <c r="A1717" s="8" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:1" ht="15">
+      <c r="A1718" s="8" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:1" ht="15">
+      <c r="A1719" s="8" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:1" ht="15">
+      <c r="A1720" s="8" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:1" ht="15">
+      <c r="A1721" s="8" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:1" ht="15">
+      <c r="A1722" s="8" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:1" ht="15">
+      <c r="A1723" s="8" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:1" ht="15">
+      <c r="A1724" s="8" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:1" ht="15">
+      <c r="A1725" s="8" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:1" ht="15">
+      <c r="A1726" s="8" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:1" ht="15">
+      <c r="A1727" s="8" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:1" ht="15">
+      <c r="A1728" s="8" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:1" ht="15">
+      <c r="A1729" s="8" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:1" ht="15">
+      <c r="A1730" s="8" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:1" ht="15">
+      <c r="A1731" s="8" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:1" ht="15">
+      <c r="A1732" s="8" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:1" ht="15">
+      <c r="A1733" s="8" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:1" ht="15">
+      <c r="A1734" s="8" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:1" ht="15">
+      <c r="A1735" s="8" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:1" ht="15">
+      <c r="A1736" s="8" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:1" ht="15">
+      <c r="A1737" s="8" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:1" ht="15">
+      <c r="A1738" s="8" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:1" ht="15">
+      <c r="A1739" s="8" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:1" ht="15">
+      <c r="A1740" s="8" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:1" ht="15">
+      <c r="A1741" s="8" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:1" ht="15">
+      <c r="A1742" s="8" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:1" ht="15">
+      <c r="A1743" s="8" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:1" ht="15">
+      <c r="A1744" s="8" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:1" ht="15">
+      <c r="A1745" s="8" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:1" ht="15">
+      <c r="A1746" s="8" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:1" ht="15">
+      <c r="A1747" s="8" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:1" ht="15">
+      <c r="A1748" s="8" t="s">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:1" ht="15">
+      <c r="A1749" s="8" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:1" ht="15">
+      <c r="A1750" s="8" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:1" ht="15">
+      <c r="A1751" s="8" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:1" ht="15">
+      <c r="A1752" s="8" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:1" ht="15">
+      <c r="A1753" s="8" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:1" ht="15">
+      <c r="A1754" s="8" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:1" ht="15">
+      <c r="A1755" s="8" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:1" ht="15">
+      <c r="A1756" s="8" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:1" ht="15">
+      <c r="A1757" s="8" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:1" ht="15">
+      <c r="A1758" s="8" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:1" ht="15">
+      <c r="A1759" s="8" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:1" ht="15">
+      <c r="A1760" s="8" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:1" ht="15">
+      <c r="A1761" s="8" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:1" ht="15">
+      <c r="A1762" s="8" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:1" ht="15">
+      <c r="A1763" s="8" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:1" ht="15">
+      <c r="A1764" s="8" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:1" ht="15">
+      <c r="A1765" s="8" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:1" ht="15">
+      <c r="A1766" s="8" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:1" ht="15">
+      <c r="A1767" s="8" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:1" ht="15">
+      <c r="A1768" s="8" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:1" ht="15">
+      <c r="A1769" s="8" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:1" ht="15">
+      <c r="A1770" s="8" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:1" ht="15">
+      <c r="A1771" s="8" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:1" ht="15">
+      <c r="A1772" s="8" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:1" ht="15">
+      <c r="A1773" s="8" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:1" ht="15">
+      <c r="A1774" s="8" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:1" ht="15">
+      <c r="A1775" s="8" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:1" ht="15">
+      <c r="A1776" s="8" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:1" ht="15">
+      <c r="A1777" s="7" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:1" ht="15">
+      <c r="A1778" s="7" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:1" ht="15">
+      <c r="A1779" s="7" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:1" ht="15">
+      <c r="A1780" s="7" t="s">
+        <v>3456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/animals words.xlsx
+++ b/animals words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVI\PycharmProjects\useGensim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901528BC-1AB9-42C4-AC8A-09B2873D2E11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F46E47-537E-41E5-AC72-DCD5A4F42529}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="28740" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words list" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="3457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3492" uniqueCount="3476">
   <si>
     <t>Aardvark</t>
   </si>
@@ -10406,6 +10406,63 @@
   </si>
   <si>
     <t xml:space="preserve">B_**_ch </t>
+  </si>
+  <si>
+    <t>Critter_Care</t>
+  </si>
+  <si>
+    <t>Cotton_Tail</t>
+  </si>
+  <si>
+    <t>Kite</t>
+  </si>
+  <si>
+    <t>Feathers</t>
+  </si>
+  <si>
+    <t>Cave</t>
+  </si>
+  <si>
+    <t>Hell_Roaring</t>
+  </si>
+  <si>
+    <t>Orangutan</t>
+  </si>
+  <si>
+    <t>Woodsy</t>
+  </si>
+  <si>
+    <t>Golden_winged_Warbler</t>
+  </si>
+  <si>
+    <t>Kid</t>
+  </si>
+  <si>
+    <t>Vanishing_Wilderness</t>
+  </si>
+  <si>
+    <t>Draggin</t>
+  </si>
+  <si>
+    <t>Busytown</t>
+  </si>
+  <si>
+    <t>Yowie</t>
+  </si>
+  <si>
+    <t>singer_Nicholas_Hexum</t>
+  </si>
+  <si>
+    <t>Nose</t>
+  </si>
+  <si>
+    <t>NBC_dramedy_Lipstick</t>
+  </si>
+  <si>
+    <t>Jungle_Swamp</t>
+  </si>
+  <si>
+    <t>Burro</t>
   </si>
 </sst>
 </file>
@@ -11293,10 +11350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AC216F-559C-4988-B135-E2C7D7D78959}">
-  <dimension ref="A1:A1684"/>
+  <dimension ref="A1:A1688"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A1653" workbookViewId="0">
-      <selection activeCell="A1684" sqref="A1684"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A1657" workbookViewId="0">
+      <selection activeCell="A1654" sqref="A1654:A1655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12529,16 +12586,6 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
-      <c r="A246" s="5" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" s="6" t="s">
-        <v>2565</v>
-      </c>
-    </row>
     <row r="248" spans="1:1">
       <c r="A248" s="1" t="s">
         <v>48</v>
@@ -15934,16 +15981,6 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="927" spans="1:1">
-      <c r="A927" s="5" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="928" spans="1:1">
-      <c r="A928" s="6" t="s">
-        <v>2858</v>
-      </c>
-    </row>
     <row r="929" spans="1:1">
       <c r="A929" s="1" t="s">
         <v>179</v>
@@ -17419,11 +17456,6 @@
         <v>2987</v>
       </c>
     </row>
-    <row r="1224" spans="1:1">
-      <c r="A1224" s="5" t="s">
-        <v>1594</v>
-      </c>
-    </row>
     <row r="1225" spans="1:1">
       <c r="A1225" s="1" t="s">
         <v>239</v>
@@ -19722,6 +19754,26 @@
     <row r="1684" spans="1:1" ht="15">
       <c r="A1684" s="7" t="s">
         <v>3452</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:1" ht="15">
+      <c r="A1685" s="7" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:1" ht="15">
+      <c r="A1686" s="7" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:1" ht="15">
+      <c r="A1687" s="7" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:1" ht="15">
+      <c r="A1688" s="7" t="s">
+        <v>3470</v>
       </c>
     </row>
   </sheetData>
@@ -19735,10 +19787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BCBB88-EB20-4FE9-9853-5AEACCACF1D8}">
-  <dimension ref="A1:B1780"/>
+  <dimension ref="A1:B1800"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A1774" workbookViewId="0">
-      <selection activeCell="A1780" sqref="A1780"/>
+    <sheetView rightToLeft="1" topLeftCell="A1774" workbookViewId="0">
+      <selection activeCell="A1801" sqref="A1801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -28673,6 +28725,106 @@
         <v>3456</v>
       </c>
     </row>
+    <row r="1781" spans="1:1" ht="15">
+      <c r="A1781" s="7" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:1" ht="15">
+      <c r="A1782" s="7" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:1" ht="15">
+      <c r="A1783" s="7" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:1" ht="15">
+      <c r="A1784" s="7" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:1" ht="15">
+      <c r="A1785" s="7" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:1" ht="15">
+      <c r="A1786" s="7" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:1" ht="15">
+      <c r="A1787" s="7" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:1" ht="15">
+      <c r="A1788" s="7" t="s">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:1" ht="15">
+      <c r="A1789" s="7" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:1" ht="15">
+      <c r="A1790" s="7" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:1" ht="15">
+      <c r="A1791" s="7" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:1" ht="15">
+      <c r="A1792" s="7" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:1" ht="15">
+      <c r="A1793" s="7" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:1" ht="15">
+      <c r="A1794" s="7" t="s">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:1" ht="15">
+      <c r="A1795" s="7" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:1">
+      <c r="A1796" s="5" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:1">
+      <c r="A1797" s="6" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:1">
+      <c r="A1798" s="5" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:1">
+      <c r="A1799" s="6" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:1">
+      <c r="A1800" s="5" t="s">
+        <v>1594</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
